--- a/pred_ohlcv/54_21/2019-11-01 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 DAC ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1342772.3681</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1364211.0323</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1413024.4142</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1395055.0392</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1150780.2632</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1461602.6062</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1187689.2482</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1187689.2482</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1410703.5632</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1141580.6752</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1399729.3432</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1399729.3432</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1399729.3432</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1692712.9442</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1692712.9442</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1322208.9912</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1322208.9912</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1473608.6902</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1134106.2672</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1431320.5202</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1431320.5202</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1686178.7792</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1686178.7792</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1367463.2212</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1637935.612200001</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1308117.881200001</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1308117.881200001</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1308117.881200001</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1308117.881200001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1453690.591200001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1157372.7922</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1157372.7922</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1466133.9782</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1466133.9782</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1466133.9782</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1466133.9782</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1466133.9782</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1231478.858200001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1231478.858200001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1415879.199200001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1126249.561200001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1126249.561200001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1380208.648200001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1230163.557200001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1230163.557200001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1230163.557200001</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1230163.557200001</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1230163.557200001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1631331.698200001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1631331.698200001</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1631331.698200001</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1264983.541200001</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1264983.541200001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1534159.903200001</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1553053.175800001</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>889012.8813999991</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-78787.89224401105</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-498720.8141440111</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>183213.5654559889</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1183626.740044011</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-785726.4476440111</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>5056844.991658142</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>4344995.369658142</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>3554267.068243152</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>3523893.384043152</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>4983828.817343152</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>6315634.996143152</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>13816265.15184174</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>13816265.15184174</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>13413335.0826567</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>14223912.1425567</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>14471471.6041567</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>14784881.05737333</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>17402232.2718567</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>16185294.7642567</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>17080392.5404567</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>14692425.8327567</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>15295148.3869567</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>14519559.1187567</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>13749732.2753567</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>13609493.3095567</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>13609493.3095567</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>13796467.6635567</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>13330819.8236567</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>12848591.8920567</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>13181755.4045567</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>13084641.6895567</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>13084641.6895567</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>12320256.4741567</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>12925432.41397887</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>12925432.41397887</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>12600896.62537887</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>12847467.63217887</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>12630492.34867886</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>12912670.68377887</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>13129815.06937887</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>13129815.06937887</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>12996995.91937887</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>12996995.91937887</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>12994923.24627887</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>12798715.09487887</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>12798715.09487887</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>12819126.00097886</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>12592126.12757886</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>12851985.81167886</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>13249274.71077886</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>13031274.71077886</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>13147099.73127886</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>13147099.73127886</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>12987511.79907886</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>12696336.76907887</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 DAC ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1230163.557200001</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1631331.698200001</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>889012.8813999991</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-78787.89224401105</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-498720.8141440111</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>183213.5654559889</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1183626.740044011</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-785726.4476440111</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>5056844.991658142</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>4344995.369658142</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>3554267.068243152</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>3523893.384043152</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>4983828.817343152</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>6315634.996143152</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>16185294.7642567</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>17080392.5404567</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>14692425.8327567</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>15295148.3869567</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>14519559.1187567</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>13749732.2753567</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>13609493.3095567</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>13609493.3095567</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>13796467.6635567</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>13330819.8236567</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>12848591.8920567</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>13181755.4045567</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>13084641.6895567</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>12320256.4741567</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>12600896.62537887</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>12996995.91937887</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>12994923.24627887</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>13147099.73127886</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>13147099.73127886</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
